--- a/games.xlsx
+++ b/games.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\slotmachine\games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\slotmachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="10665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="10665" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="basic" sheetId="1" r:id="rId1"/>
+    <sheet name="wild cherry" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Slot 1</t>
   </si>
@@ -90,6 +91,30 @@
   </si>
   <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>Seven</t>
+  </si>
+  <si>
+    <t>Double Bar</t>
+  </si>
+  <si>
+    <t>Any Bar+Any Bar+Any Bar</t>
+  </si>
+  <si>
+    <t>Seven+Seven+Seven</t>
+  </si>
+  <si>
+    <t>Cherry+Cherry+Cherry</t>
+  </si>
+  <si>
+    <t>Wild Cherry</t>
+  </si>
+  <si>
+    <t>Double Bar+Double Bar+Double Bar</t>
+  </si>
+  <si>
+    <t>Blank</t>
   </si>
 </sst>
 </file>
@@ -97,8 +122,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -131,8 +156,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,7 +474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -480,7 +507,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -488,13 +515,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -519,10 +546,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -530,13 +557,13 @@
         <v>6</v>
       </c>
       <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -545,7 +572,7 @@
       </c>
       <c r="B8">
         <f>SUM(B2:B7)*SUM(C2:C7)*SUM(D2:D7)</f>
-        <v>26220</v>
+        <v>38012</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -567,19 +594,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <f>B2*SUM(C2:C7)*SUM(D2:D7)</f>
-        <v>5244</v>
+        <f>B2*SUM(C3:C7)*SUM(D2:D7)</f>
+        <v>5676</v>
       </c>
       <c r="C11" s="2">
         <f>B11/$B$8</f>
-        <v>0.2</v>
+        <v>0.14932126696832579</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" s="1">
         <f>C11*D11</f>
-        <v>0.4</v>
+        <v>0.29864253393665158</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -588,18 +615,18 @@
       </c>
       <c r="B12">
         <f>B2*C2*SUM(D2:D7)</f>
-        <v>912</v>
+        <v>1032</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ref="C12:C18" si="0">B12/$B$8</f>
-        <v>3.4782608695652174E-2</v>
+        <v>2.7149321266968326E-2</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ref="E12:E18" si="1">C12*D12</f>
-        <v>0.1391304347826087</v>
+        <v>0.10859728506787331</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -608,18 +635,18 @@
       </c>
       <c r="B13">
         <f>B3*C3*D3</f>
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>1.2204424103737605E-2</v>
+        <v>1.6836788382616017E-2</v>
       </c>
       <c r="D13">
         <v>8</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>9.7635392829900844E-2</v>
+        <v>0.13469430706092814</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -632,14 +659,14 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>7.3226544622425633E-3</v>
+        <v>5.0510365147848051E-3</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>7.3226544622425629E-2</v>
+        <v>5.0510365147848055E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -648,18 +675,18 @@
       </c>
       <c r="B15">
         <f>B5*C5*D5</f>
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>1.9069412662090007E-3</v>
+        <v>3.156897821740503E-3</v>
       </c>
       <c r="D15">
         <v>15</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>2.860411899313501E-2</v>
+        <v>4.7353467326107547E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -667,19 +694,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <f>B6*SUM(C2:C7)*SUM(D2:D7)</f>
-        <v>874</v>
+        <f>B6*SUM(C2:C6)*SUM(D2:D6)-B17-B18</f>
+        <v>1892</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <v>4.9773755656108594E-2</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.24886877828054296</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -687,19 +714,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <f>B6*C6*SUM(D2:D7)</f>
-        <v>76</v>
+        <f>B6*C6*SUM(D2:D5)</f>
+        <v>336</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>2.8985507246376812E-3</v>
+        <v>8.8393139008734085E-3</v>
       </c>
       <c r="D17">
         <v>10</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>2.8985507246376812E-2</v>
+        <v>8.8393139008734078E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -708,18 +735,18 @@
       </c>
       <c r="B18">
         <f>B6*C6*D6</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>6.1022120518688027E-4</v>
+        <v>2.1045985478270019E-4</v>
       </c>
       <c r="D18">
         <v>100</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>6.1022120518688029E-2</v>
+        <v>2.1045985478270017E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -731,11 +758,291 @@
       </c>
       <c r="C20" s="1">
         <f>SUM(C11:C19)</f>
-        <v>0.29305873379099923</v>
+        <v>0.26033884036620009</v>
       </c>
       <c r="E20" s="1">
         <f>SUM(E11:E19)</f>
-        <v>0.99527078565980165</v>
+        <v>0.99810586130695567</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)*SUM(C2:C7)*SUM(D2:D7)</f>
+        <v>34476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f>B2*SUM(C2:C7)*SUM(D2:D7)-B12-B17-B2*C6*D6-B2*(C4+C5)*(D4+D5)</f>
+        <v>2271</v>
+      </c>
+      <c r="C11" s="2">
+        <f>B11/$B$8</f>
+        <v>6.5871910894535327E-2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <f>C11*D11</f>
+        <v>0.32935955447267662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f>B2*C2*D3</f>
+        <v>120</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" ref="C12:C17" si="0">B12/$B$8</f>
+        <v>3.4806822137138879E-3</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ref="E12:E17" si="1">C12*D12</f>
+        <v>3.4806822137138878E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <f>(B2+B4+B5)*(C2+C4+C5)*(D2+D4+D5)-B14-B15</f>
+        <v>1030</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" ref="C13" si="2">B13/$B$8</f>
+        <v>2.9875855667710872E-2</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ref="E13" si="3">C13*D13</f>
+        <v>0.14937927833855436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <f>(B2+B4)*(C2+C4)*(D2+D4)</f>
+        <v>819</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3755656108597284E-2</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23755656108597284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <f>(B2+B5)*(C2+C5)*(D2+D5)</f>
+        <v>140</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0607959159995356E-3</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>8.1215918319990713E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <f>(B2+B6)*(C2+C6)*(D2+D6)</f>
+        <v>54</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5663069961712496E-3</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>7.8315349808562473E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <f>B2*C2*D2</f>
+        <v>6</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7403411068569441E-4</v>
+      </c>
+      <c r="D17">
+        <v>500</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>8.7017055342847205E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1">
+        <f>SUM(C11:C18)</f>
+        <v>0.12878524190741386</v>
+      </c>
+      <c r="E19" s="1">
+        <f>SUM(E11:E18)</f>
+        <v>0.99765053950574323</v>
       </c>
     </row>
   </sheetData>

--- a/games.xlsx
+++ b/games.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\slotmachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="10665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="10665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
     <sheet name="wild cherry" sheetId="2" r:id="rId2"/>
+    <sheet name="progressive" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>Slot 1</t>
   </si>
@@ -115,12 +116,33 @@
   </si>
   <si>
     <t>Blank</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>Diamond+Any+Any</t>
+  </si>
+  <si>
+    <t>Diamond+Diamond+Any</t>
+  </si>
+  <si>
+    <t>Diamond+Diamond+Diamond</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>Bell+Bell+Bell</t>
+  </si>
+  <si>
+    <t>Plus every spin adds 0.05 coins to progressive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -475,7 +497,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,19 +916,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <f>B2*SUM(C2:C7)*SUM(D2:D7)-B12-B17-B2*C6*D6-B2*(C4+C5)*(D4+D5)</f>
-        <v>2271</v>
+        <f>B2*SUM(C2:C7)*SUM(D2:D7)-B12-B17-B2*SUM(C4:C7)*SUM(D4:D7)</f>
+        <v>2214</v>
       </c>
       <c r="C11" s="2">
         <f>B11/$B$8</f>
-        <v>6.5871910894535327E-2</v>
+        <v>6.421858684302123E-2</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11" s="1">
         <f>C11*D11</f>
-        <v>0.32935955447267662</v>
+        <v>0.32109293421510615</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1038,11 +1060,314 @@
       </c>
       <c r="C19" s="1">
         <f>SUM(C11:C18)</f>
-        <v>0.12878524190741386</v>
+        <v>0.12713191785589975</v>
       </c>
       <c r="E19" s="1">
         <f>SUM(E11:E18)</f>
-        <v>0.99765053950574323</v>
+        <v>0.98938391924817271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)*SUM(C2:C7)*SUM(D2:D7)</f>
+        <v>33456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f>B2*SUM(C3:C7)*SUM(D2:D7)</f>
+        <v>4920</v>
+      </c>
+      <c r="C11" s="2">
+        <f>B11/$B$8</f>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <f>C11*D11</f>
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f>B2*C2*SUM(D2:D7)</f>
+        <v>984</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" ref="C12:C18" si="0">B12/$B$8</f>
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ref="E12:E18" si="1">C12*D12</f>
+        <v>0.11764705882352941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <f>B3*C3*D3</f>
+        <v>640</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9129603060736491E-2</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5648015303682457E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f>B4*C4*D4</f>
+        <v>192</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>5.7388809182209472E-3</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>5.7388809182209469E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <f>B5*C5*D5</f>
+        <v>120</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5868005738880918E-3</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3802008608321378E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <f>B6*SUM(C2:C6)*SUM(D2:D6)-B17-B18</f>
+        <v>1804</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>5.3921568627450983E-2</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26960784313725494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <f>B6*C6*SUM(D2:D5)</f>
+        <v>160</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7824007651841227E-3</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>4.7824007651841229E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <f>B6*C6*D6</f>
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1956001912960307E-4</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1956001912960307E-2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <f>SUM(C11:C19)</f>
+        <v>0.26374940219990439</v>
+      </c>
+      <c r="E20" s="1">
+        <f>SUM(E11:E19)</f>
+        <v>0.94799139167862279</v>
       </c>
     </row>
   </sheetData>

--- a/games.xlsx
+++ b/games.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\slotmachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="10665" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="10665" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
     <sheet name="wild cherry" sheetId="2" r:id="rId2"/>
     <sheet name="progressive" sheetId="3" r:id="rId3"/>
+    <sheet name="loose" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
   <si>
     <t>Slot 1</t>
   </si>
@@ -137,12 +138,39 @@
   </si>
   <si>
     <t>Plus every spin adds 0.05 coins to progressive</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>Gold Bar</t>
+  </si>
+  <si>
+    <t>Horseshoe</t>
+  </si>
+  <si>
+    <t>Heart+Any+Any</t>
+  </si>
+  <si>
+    <t>Heart+Heart+Any</t>
+  </si>
+  <si>
+    <t>Gold Bar+Any+Any</t>
+  </si>
+  <si>
+    <t>Gold Bar+Gold Bar+Any</t>
+  </si>
+  <si>
+    <t>Gold Bar+Gold Bar+Gold Bar</t>
+  </si>
+  <si>
+    <t>Horseshoe+Horseshoe+Horseshoe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -1076,7 +1104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -1373,4 +1401,304 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)*SUM(C2:C7)*SUM(D2:D7)</f>
+        <v>41760</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <f>B2*SUM(C3:C7)*SUM(D2:D7)</f>
+        <v>5625</v>
+      </c>
+      <c r="C11" s="2">
+        <f>B11/$B$8</f>
+        <v>0.13469827586206898</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <f>C11*D11</f>
+        <v>0.26939655172413796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <f>B2*C2*SUM(D2:D7)</f>
+        <v>900</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" ref="C12:C16" si="0">B12/$B$8</f>
+        <v>2.1551724137931036E-2</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ref="E12:E16" si="1">C12*D12</f>
+        <v>8.6206896551724144E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <f>B3*C3*D3</f>
+        <v>864</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0689655172413793E-2</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.10344827586206896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <f>B4*C4*D4</f>
+        <v>320</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6628352490421452E-3</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5977011494252873E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <f>B5*C5*D5</f>
+        <v>180</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3103448275862068E-3</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3103448275862072E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <f>B6*SUM(C2:C5)*SUM(D2:D6)</f>
+        <v>1170</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8017241379310345E-2</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.28017241379310343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <f>B6*C6*SUM(D2:D5)</f>
+        <v>129</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:C18" si="2">B17/$B$8</f>
+        <v>3.0890804597701149E-3</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" ref="E17:E18" si="3">C17*D17</f>
+        <v>7.7227011494252873E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <f>B6*C6*D6</f>
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4367816091954023E-4</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14367816091954022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <f>SUM(C11:C19)</f>
+        <v>0.22016283524904215</v>
+      </c>
+      <c r="E20" s="1">
+        <f>SUM(E11:E19)</f>
+        <v>1.0492097701149423</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/games.xlsx
+++ b/games.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\slotmachine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\slotmachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEEEFD7-012C-4C9F-90B9-97CC37A00618}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="10665" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="10665" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
     <sheet name="wild cherry" sheetId="2" r:id="rId2"/>
     <sheet name="progressive" sheetId="3" r:id="rId3"/>
     <sheet name="loose" sheetId="4" r:id="rId4"/>
+    <sheet name="tournament" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
   <si>
     <t>Slot 1</t>
   </si>
@@ -170,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -521,7 +523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -821,11 +823,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,7 +1103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1404,10 +1406,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1701,4 +1703,278 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A3B944-CE55-4F17-8A47-E09BCB2EB7C2}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>SUM(B2:B8)*SUM(C2:C8)*SUM(D2:D8)</f>
+        <v>39168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <f>B2*SUM(C2:C8)*SUM(D2:D8)-B17-B2*((C2+C4)*(D2+D4)+(C2+C5)*(D2+D5)+(C2+C6)*(D2+D6)+(C2+C7)*(D2+D7))</f>
+        <v>5080</v>
+      </c>
+      <c r="C12" s="2">
+        <f>B12/$B$9</f>
+        <v>0.12969771241830066</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <f>C12*D12</f>
+        <v>0.25939542483660133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <f>(B2+B4)*(C2+C4)*(D2+D4)-B17</f>
+        <v>1250</v>
+      </c>
+      <c r="C13" s="2">
+        <f>B13/$B$9</f>
+        <v>3.1913807189542481E-2</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ref="E13:E17" si="0">C13*D13</f>
+        <v>0.15956903594771241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <f>(B2+B5)*(C2+C5)*(D2+D5)-B17</f>
+        <v>692</v>
+      </c>
+      <c r="C14" s="2">
+        <f>B14/$B$9</f>
+        <v>1.7667483660130719E-2</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17667483660130717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <f>(B2+B6)*(C2+C6)*(D2+D6)-B17</f>
+        <v>170</v>
+      </c>
+      <c r="C15" s="2">
+        <f>B15/$B$9</f>
+        <v>4.340277777777778E-3</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>8.6805555555555552E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <f>(B2+B7)*(C2+C7)*(D2+D7)-B17</f>
+        <v>44</v>
+      </c>
+      <c r="C16" s="2">
+        <f>B16/$B$9</f>
+        <v>1.1233660130718953E-3</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11233660130718953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <f>B2*C2*D2</f>
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
+        <f>B17/$B$9</f>
+        <v>2.5531045751633988E-4</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25531045751633991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1">
+        <f>SUM(C12:C18)</f>
+        <v>0.18499795751633988</v>
+      </c>
+      <c r="E19" s="1">
+        <f>SUM(E12:E18)</f>
+        <v>1.0500919117647058</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/games.xlsx
+++ b/games.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\slotmachine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\slotmachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEEEFD7-012C-4C9F-90B9-97CC37A00618}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="10665" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="10665" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -18,6 +17,7 @@
     <sheet name="progressive" sheetId="3" r:id="rId3"/>
     <sheet name="loose" sheetId="4" r:id="rId4"/>
     <sheet name="tournament" sheetId="6" r:id="rId5"/>
+    <sheet name="tournament2" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="47">
   <si>
     <t>Slot 1</t>
   </si>
@@ -167,12 +167,15 @@
   </si>
   <si>
     <t>Horseshoe+Horseshoe+Horseshoe</t>
+  </si>
+  <si>
+    <t>Bel+Bell+Bell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -523,7 +526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -823,7 +826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1103,7 +1106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1406,7 +1409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1706,10 +1709,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A3B944-CE55-4F17-8A47-E09BCB2EB7C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1847,7 +1850,7 @@
         <v>5080</v>
       </c>
       <c r="C12" s="2">
-        <f>B12/$B$9</f>
+        <f t="shared" ref="C12:C17" si="0">B12/$B$9</f>
         <v>0.12969771241830066</v>
       </c>
       <c r="D12">
@@ -1867,14 +1870,14 @@
         <v>1250</v>
       </c>
       <c r="C13" s="2">
-        <f>B13/$B$9</f>
+        <f t="shared" si="0"/>
         <v>3.1913807189542481E-2</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E13:E17" si="0">C13*D13</f>
+        <f t="shared" ref="E13:E17" si="1">C13*D13</f>
         <v>0.15956903594771241</v>
       </c>
     </row>
@@ -1887,14 +1890,14 @@
         <v>692</v>
       </c>
       <c r="C14" s="2">
-        <f>B14/$B$9</f>
+        <f t="shared" si="0"/>
         <v>1.7667483660130719E-2</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17667483660130717</v>
       </c>
     </row>
@@ -1907,14 +1910,14 @@
         <v>170</v>
       </c>
       <c r="C15" s="2">
-        <f>B15/$B$9</f>
+        <f t="shared" si="0"/>
         <v>4.340277777777778E-3</v>
       </c>
       <c r="D15">
         <v>20</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6805555555555552E-2</v>
       </c>
     </row>
@@ -1927,14 +1930,14 @@
         <v>44</v>
       </c>
       <c r="C16" s="2">
-        <f>B16/$B$9</f>
+        <f t="shared" si="0"/>
         <v>1.1233660130718953E-3</v>
       </c>
       <c r="D16">
         <v>100</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11233660130718953</v>
       </c>
     </row>
@@ -1947,14 +1950,14 @@
         <v>10</v>
       </c>
       <c r="C17" s="2">
-        <f>B17/$B$9</f>
+        <f t="shared" si="0"/>
         <v>2.5531045751633988E-4</v>
       </c>
       <c r="D17">
         <v>1000</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25531045751633991</v>
       </c>
     </row>
@@ -1972,6 +1975,286 @@
       <c r="E19" s="1">
         <f>SUM(E12:E18)</f>
         <v>1.0500919117647058</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)*SUM(C2:C7)*SUM(D2:D7)</f>
+        <v>22707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <f>B2*SUM(C3:C7)*SUM(D2:D7)</f>
+        <v>3654</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" ref="C11:C17" si="0">B11/$B$8</f>
+        <v>0.16091954022988506</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <f>C11*D11</f>
+        <v>0.32183908045977011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <f>B2*C2*SUM(D2:D6)</f>
+        <v>1392</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>6.1302681992337162E-2</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ref="E12:E17" si="1">C12*D12</f>
+        <v>0.24521072796934865</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <f>B3*C3*D3</f>
+        <v>630</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7744748315497423E-2</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13872374157748713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f>B4*C4*D4</f>
+        <v>280</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2330999251332188E-2</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>7.3985995507993133E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <f>B5*C5*(SUM(D2:D7)-D5)</f>
+        <v>368</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6206456158893733E-2</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" ref="E15:E16" si="2">C15*D15</f>
+        <v>0.16206456158893734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <f>B5*C5*D5</f>
+        <v>96</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2277711718853219E-3</v>
+      </c>
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10569427929713304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <f>B6*C6*D6</f>
+        <v>24</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0569427929713305E-3</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>5.2847139648566521E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1">
+        <f>SUM(C11:C18)</f>
+        <v>0.28378913991280219</v>
+      </c>
+      <c r="E19" s="1">
+        <f>SUM(E11:E18)</f>
+        <v>1.100365526049236</v>
       </c>
     </row>
   </sheetData>

--- a/games.xlsx
+++ b/games.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\slotmachine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\slotmachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B622F8D8-DF29-4B4C-B0E3-91C4C80A3A7D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="10665" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="10665" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -18,6 +19,7 @@
     <sheet name="loose" sheetId="4" r:id="rId4"/>
     <sheet name="tournament" sheetId="6" r:id="rId5"/>
     <sheet name="tournament2" sheetId="7" r:id="rId6"/>
+    <sheet name="tournament3" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="60">
   <si>
     <t>Slot 1</t>
   </si>
@@ -170,12 +172,51 @@
   </si>
   <si>
     <t>Bel+Bell+Bell</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Pork</t>
+  </si>
+  <si>
+    <t>Veal</t>
+  </si>
+  <si>
+    <t>Steak</t>
+  </si>
+  <si>
+    <t>Chicken+Any+Any</t>
+  </si>
+  <si>
+    <t>Chicken+Chicken+Any</t>
+  </si>
+  <si>
+    <t>Turkey+Turkey+Turkey</t>
+  </si>
+  <si>
+    <t>Pork+Pork+Pork</t>
+  </si>
+  <si>
+    <t>Veal+Veal+Veal</t>
+  </si>
+  <si>
+    <t>Steak+Any+Any</t>
+  </si>
+  <si>
+    <t>Steak+Steak+Steak</t>
+  </si>
+  <si>
+    <t>Steak+Steak+Any</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -526,7 +567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -826,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1106,7 +1147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1409,7 +1450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1709,7 +1750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1983,10 +2024,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2260,4 +2301,304 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8691DFE2-482E-47AD-BB1E-BBBB7B9DDB75}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)*SUM(C2:C7)*SUM(D2:D7)</f>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <f>B2*SUM(C3:C7)*SUM(D2:D7)</f>
+        <v>2052</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" ref="C11:C18" si="0">B11/$B$8</f>
+        <v>0.21714285714285714</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <f>C11*D11</f>
+        <v>0.21714285714285714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <f>B2*C2*SUM(D2:D6)</f>
+        <v>648</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8571428571428575E-2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ref="E12:E18" si="1">C12*D12</f>
+        <v>0.13714285714285715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <f>B3*C3*D3</f>
+        <v>288</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0476190476190476E-2</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1219047619047619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <f>B4*C4*D4</f>
+        <v>120</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2698412698412698E-2</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6190476190476197E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <f>B5*C5*D5</f>
+        <v>48</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0793650793650794E-3</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0634920634920635E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16">
+        <f>B6*SUM(C2:C5)*SUM(D2:D6)</f>
+        <v>621</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>6.5714285714285711E-2</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.32857142857142857</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17">
+        <f>B6*C6*SUM(D2:D5)</f>
+        <v>50</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17" si="2">B17/$B$8</f>
+        <v>5.2910052910052907E-3</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" ref="E17" si="3">C17*D17</f>
+        <v>0.10582010582010581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18">
+        <f>B6*C6*D6</f>
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>4.232804232804233E-4</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>4.2328042328042333E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <f>SUM(C11:C19)</f>
+        <v>0.40539682539682542</v>
+      </c>
+      <c r="E20" s="1">
+        <f>SUM(E11:E19)</f>
+        <v>1.0697354497354497</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/games.xlsx
+++ b/games.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\slotmachine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\slotmachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B622F8D8-DF29-4B4C-B0E3-91C4C80A3A7D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="10665" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="10665" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -20,6 +19,7 @@
     <sheet name="tournament" sheetId="6" r:id="rId5"/>
     <sheet name="tournament2" sheetId="7" r:id="rId6"/>
     <sheet name="tournament3" sheetId="8" r:id="rId7"/>
+    <sheet name="tournament4" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="64">
   <si>
     <t>Slot 1</t>
   </si>
@@ -211,12 +211,24 @@
   </si>
   <si>
     <t>Steak+Steak+Any</t>
+  </si>
+  <si>
+    <t>Heart+Heart+Heart</t>
+  </si>
+  <si>
+    <t>Orange+Any+Any</t>
+  </si>
+  <si>
+    <t>Seven+Any+Any</t>
+  </si>
+  <si>
+    <t>Seven+Seven+Any</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -567,7 +579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -867,7 +879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1147,7 +1159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1450,7 +1462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1750,7 +1762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2024,7 +2036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2304,10 +2316,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8691DFE2-482E-47AD-BB1E-BBBB7B9DDB75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2601,4 +2613,370 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)*SUM(C2:C7)*SUM(D2:D7)</f>
+        <v>12312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f>B2*SUM(C2:C6)*SUM(D2:D6)-B12</f>
+        <v>3408</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" ref="C11:C21" si="0">B11/$B$8</f>
+        <v>0.27680311890838205</v>
+      </c>
+      <c r="D11">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="1">
+        <f>C11*D11</f>
+        <v>5.5360623781676416E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <f>B2*C2*D2</f>
+        <v>480</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8986354775828458E-2</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ref="E12:E21" si="1">C12*D12</f>
+        <v>0.15594541910331383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <f>B3*SUM(C2:C6)*SUM(D2:D6)-B14</f>
+        <v>2496</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20272904483430798</v>
+      </c>
+      <c r="D13">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>4.05458089668616E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <f>B3*C3*D3</f>
+        <v>96</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>7.7972709551656916E-3</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6783625730994149E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15">
+        <f>B4*SUM(C2:C6)*SUM(D2:D6)-B16</f>
+        <v>2492</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20240415854450941</v>
+      </c>
+      <c r="D15">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0480831708901883E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <f>B4*C4*D4</f>
+        <v>100</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>8.1221572449642621E-3</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4977257959714096E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <f>B5*SUM(C2:C6)*SUM(D2:D6)-B18</f>
+        <v>2544</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20662768031189083</v>
+      </c>
+      <c r="D17">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1325536062378168E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <f>B5*C5*D5</f>
+        <v>48</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8986354775828458E-3</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8986354775828458E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19">
+        <f>B6*SUM(C2:C5)*SUM(D2:D6)</f>
+        <v>600</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8732943469785572E-2</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48732943469785572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20">
+        <f>B6*C6*SUM(D2:D5)</f>
+        <v>40</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2488628979857048E-3</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4977257959714096E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <f>B6*C6*D6</f>
+        <v>8</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>6.4977257959714096E-4</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2488628979857048E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <f>SUM(C11:C22)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="E23" s="1">
+        <f>SUM(E11:E22)</f>
+        <v>1.0692007797270953</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <f>SUMIF(D11:D21,"&gt;1",C11:C21)</f>
+        <v>0.11143599740090968</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/games.xlsx
+++ b/games.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\slotmachine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsdri\Code\slotmachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CD4B39-A72B-40D5-9DF4-C816F7DF52CE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="10665" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19130" windowHeight="10670" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -20,8 +21,9 @@
     <sheet name="tournament2" sheetId="7" r:id="rId6"/>
     <sheet name="tournament3" sheetId="8" r:id="rId7"/>
     <sheet name="tournament4" sheetId="9" r:id="rId8"/>
+    <sheet name="tournament5" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="77">
   <si>
     <t>Slot 1</t>
   </si>
@@ -223,12 +225,51 @@
   </si>
   <si>
     <t>Seven+Seven+Any</t>
+  </si>
+  <si>
+    <t>Maggie</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Marge</t>
+  </si>
+  <si>
+    <t>Bart</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>Maggie+Any+Any</t>
+  </si>
+  <si>
+    <t>Maggie+Maggie+Any</t>
+  </si>
+  <si>
+    <t>Lisa+Lisa+Lisa</t>
+  </si>
+  <si>
+    <t>Marge+Marge+Marge</t>
+  </si>
+  <si>
+    <t>Bart+Bart+Bart</t>
+  </si>
+  <si>
+    <t>Homer+Homer+Homer</t>
+  </si>
+  <si>
+    <t>Homer+Homer+Any</t>
+  </si>
+  <si>
+    <t>Homer+Any+Any</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -579,21 +620,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -618,7 +659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -632,7 +673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -646,7 +687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -660,7 +701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -674,7 +715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -683,7 +724,7 @@
         <v>38012</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -697,7 +738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -717,7 +758,7 @@
         <v>0.29864253393665158</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -737,7 +778,7 @@
         <v>0.10859728506787331</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -757,7 +798,7 @@
         <v>0.13469430706092814</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -777,7 +818,7 @@
         <v>5.0510365147848055E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -797,7 +838,7 @@
         <v>4.7353467326107547E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -817,7 +858,7 @@
         <v>0.24886877828054296</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -837,7 +878,7 @@
         <v>8.8393139008734078E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -857,10 +898,10 @@
         <v>2.1045985478270017E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -879,21 +920,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -904,7 +945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -918,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -932,7 +973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -946,7 +987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -960,7 +1001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -974,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -983,7 +1024,7 @@
         <v>34476</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -997,7 +1038,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1017,7 +1058,7 @@
         <v>0.32109293421510615</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1037,7 +1078,7 @@
         <v>3.4806822137138878E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1057,7 +1098,7 @@
         <v>0.14937927833855436</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1077,7 +1118,7 @@
         <v>0.23755656108597284</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1097,7 +1138,7 @@
         <v>8.1215918319990713E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1117,7 +1158,7 @@
         <v>7.8315349808562473E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1137,10 +1178,10 @@
         <v>8.7017055342847205E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1159,21 +1200,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7265625" customWidth="1"/>
+    <col min="2" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1184,7 +1225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1198,7 +1239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1212,7 +1253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1226,7 +1267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1240,7 +1281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1254,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1263,7 +1304,7 @@
         <v>33456</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -1277,7 +1318,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1297,7 +1338,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1317,7 +1358,7 @@
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1337,7 +1378,7 @@
         <v>9.5648015303682457E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1357,7 +1398,7 @@
         <v>5.7388809182209469E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1377,7 +1418,7 @@
         <v>5.3802008608321378E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1397,7 +1438,7 @@
         <v>0.26960784313725494</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1417,7 +1458,7 @@
         <v>4.7824007651841229E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1440,10 +1481,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1462,21 +1503,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +1528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1501,7 +1542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1515,7 +1556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1529,7 +1570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1543,7 +1584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1557,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1566,7 +1607,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -1580,7 +1621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1600,7 +1641,7 @@
         <v>0.26939655172413796</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1620,7 +1661,7 @@
         <v>8.6206896551724144E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1640,7 +1681,7 @@
         <v>0.10344827586206896</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1660,7 +1701,7 @@
         <v>4.5977011494252873E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1680,7 +1721,7 @@
         <v>4.3103448275862072E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1700,7 +1741,7 @@
         <v>0.28017241379310343</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1720,7 +1761,7 @@
         <v>7.7227011494252873E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1740,10 +1781,10 @@
         <v>0.14367816091954022</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1762,21 +1803,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1787,7 +1828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1801,7 +1842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1815,7 +1856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1829,7 +1870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1843,7 +1884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1857,7 +1898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1871,7 +1912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1880,7 +1921,7 @@
         <v>39168</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1894,7 +1935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1914,7 +1955,7 @@
         <v>0.25939542483660133</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1934,7 +1975,7 @@
         <v>0.15956903594771241</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1954,7 +1995,7 @@
         <v>0.17667483660130717</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1974,7 +2015,7 @@
         <v>8.6805555555555552E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1994,7 +2035,7 @@
         <v>0.11233660130718953</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -2014,10 +2055,10 @@
         <v>0.25531045751633991</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2036,21 +2077,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2061,7 +2102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -2075,7 +2116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2089,7 +2130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2103,7 +2144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2117,7 +2158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2131,7 +2172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2140,7 +2181,7 @@
         <v>22707</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -2154,7 +2195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2174,7 +2215,7 @@
         <v>0.32183908045977011</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2194,7 +2235,7 @@
         <v>0.24521072796934865</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -2214,7 +2255,7 @@
         <v>0.13872374157748713</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2234,7 +2275,7 @@
         <v>7.3985995507993133E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2254,7 +2295,7 @@
         <v>0.16206456158893734</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2274,7 +2315,7 @@
         <v>0.10569427929713304</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2294,10 +2335,10 @@
         <v>5.2847139648566521E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2316,21 +2357,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2341,7 +2382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2355,7 +2396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2369,7 +2410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2383,7 +2424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2397,7 +2438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -2411,7 +2452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2420,7 +2461,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -2434,7 +2475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -2454,7 +2495,7 @@
         <v>0.21714285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -2474,7 +2515,7 @@
         <v>0.13714285714285715</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -2494,7 +2535,7 @@
         <v>0.1219047619047619</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -2514,7 +2555,7 @@
         <v>7.6190476190476197E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2534,7 +2575,7 @@
         <v>4.0634920634920635E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -2554,7 +2595,7 @@
         <v>0.32857142857142857</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -2574,7 +2615,7 @@
         <v>0.10582010582010581</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -2594,10 +2635,10 @@
         <v>4.2328042328042333E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2616,21 +2657,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2641,7 +2682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2655,7 +2696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -2669,7 +2710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2683,7 +2724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -2697,7 +2738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2711,7 +2752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2720,7 +2761,7 @@
         <v>12312</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -2734,7 +2775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2754,7 +2795,7 @@
         <v>5.5360623781676416E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2774,7 +2815,7 @@
         <v>0.15594541910331383</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2794,7 +2835,7 @@
         <v>4.05458089668616E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -2814,7 +2855,7 @@
         <v>4.6783625730994149E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -2834,7 +2875,7 @@
         <v>4.0480831708901883E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2854,7 +2895,7 @@
         <v>6.4977257959714096E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2874,7 +2915,7 @@
         <v>4.1325536062378168E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -2894,7 +2935,7 @@
         <v>3.8986354775828458E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -2914,7 +2955,7 @@
         <v>0.48732943469785572</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -2934,7 +2975,7 @@
         <v>6.4977257959714096E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2954,10 +2995,10 @@
         <v>3.2488628979857048E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2970,10 +3011,310 @@
         <v>1.0692007797270953</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C24" s="1">
         <f>SUMIF(D11:D21,"&gt;1",C11:C21)</f>
         <v>0.11143599740090968</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6C747-826B-431D-925B-273DCC10B881}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)*SUM(C2:C7)*SUM(D2:D7)</f>
+        <v>36504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11">
+        <f>B2*SUM(C3:C7)*SUM(D2:D7)</f>
+        <v>5148</v>
+      </c>
+      <c r="C11" s="2">
+        <f>B11/$B$8</f>
+        <v>0.14102564102564102</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <f>C11*D11</f>
+        <v>0.28205128205128205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12">
+        <f>B2*C2*SUM(D2:D7)</f>
+        <v>936</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" ref="C12:C18" si="0">B12/$B$8</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ref="E12:E18" si="1">C12*D12</f>
+        <v>0.12820512820512819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13">
+        <f>B3*C3*D3</f>
+        <v>288</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>7.889546351084813E-3</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>7.8895463510848127E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14">
+        <f>B4*C4*D4</f>
+        <v>288</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>7.889546351084813E-3</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15">
+        <f>B5*C5*D5</f>
+        <v>144</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9447731755424065E-3</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>5.9171597633136098E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16">
+        <f>B6*SUM(C2:C6)*SUM(D2:D6)-B17-B18</f>
+        <v>1716</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7008547008547008E-2</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23504273504273504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <f>B6*C6*SUM(D2:D5)</f>
+        <v>304</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3278544817006351E-3</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20819636204251588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18">
+        <f>B6*C6*D6</f>
+        <v>8</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1915406530791147E-4</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0957703265395573E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <f>SUM(C11:C19)</f>
+        <v>0.24194608809993429</v>
+      </c>
+      <c r="E20" s="1">
+        <f>SUM(E11:E19)</f>
+        <v>1.0971948279640586</v>
       </c>
     </row>
   </sheetData>

--- a/games.xlsx
+++ b/games.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsdri\Code\slotmachine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\slotmachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CD4B39-A72B-40D5-9DF4-C816F7DF52CE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19130" windowHeight="10670" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="10665" tabRatio="782" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -22,8 +21,9 @@
     <sheet name="tournament3" sheetId="8" r:id="rId7"/>
     <sheet name="tournament4" sheetId="9" r:id="rId8"/>
     <sheet name="tournament5" sheetId="10" r:id="rId9"/>
+    <sheet name="tournament6" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="90">
   <si>
     <t>Slot 1</t>
   </si>
@@ -264,12 +264,51 @@
   </si>
   <si>
     <t>Homer+Any+Any</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>Joker</t>
+  </si>
+  <si>
+    <t>Riddler</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>Two Face</t>
+  </si>
+  <si>
+    <t>Penguin+Any+Any</t>
+  </si>
+  <si>
+    <t>Penguin+Penguin+Any</t>
+  </si>
+  <si>
+    <t>Two Face+Two Face+Two Face</t>
+  </si>
+  <si>
+    <t>Riddler+Riddler+Riddler</t>
+  </si>
+  <si>
+    <t>Joker+Joker+Joker</t>
+  </si>
+  <si>
+    <t>Batman+Any+Any</t>
+  </si>
+  <si>
+    <t>Batman+Batman+Any</t>
+  </si>
+  <si>
+    <t>Batman+Batman+Batman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -620,21 +659,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -659,7 +698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -673,7 +712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -687,7 +726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -701,7 +740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -715,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -724,7 +763,7 @@
         <v>38012</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -738,7 +777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -758,7 +797,7 @@
         <v>0.29864253393665158</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -778,7 +817,7 @@
         <v>0.10859728506787331</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -798,7 +837,7 @@
         <v>0.13469430706092814</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -818,7 +857,7 @@
         <v>5.0510365147848055E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -838,7 +877,7 @@
         <v>4.7353467326107547E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -858,7 +897,7 @@
         <v>0.24886877828054296</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -878,7 +917,7 @@
         <v>8.8393139008734078E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -898,10 +937,10 @@
         <v>2.1045985478270017E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -912,6 +951,304 @@
       <c r="E20" s="1">
         <f>SUM(E11:E19)</f>
         <v>0.99810586130695567</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)*SUM(C2:C7)*SUM(D2:D7)</f>
+        <v>36504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11">
+        <f>B2*SUM(C3:C7)*SUM(D2:D7)</f>
+        <v>5148</v>
+      </c>
+      <c r="C11" s="2">
+        <f>B11/$B$8</f>
+        <v>0.14102564102564102</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <f>C11*D11</f>
+        <v>0.28205128205128205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12">
+        <f>B2*C2*SUM(D2:D7)</f>
+        <v>936</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" ref="C12:C18" si="0">B12/$B$8</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ref="E12:E18" si="1">C12*D12</f>
+        <v>0.12820512820512819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13">
+        <f>B3*C3*D3</f>
+        <v>288</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>7.889546351084813E-3</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>7.8895463510848127E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14">
+        <f>B4*C4*D4</f>
+        <v>288</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>7.889546351084813E-3</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15">
+        <f>B5*C5*D5</f>
+        <v>144</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9447731755424065E-3</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>5.9171597633136098E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16">
+        <f>B6*SUM(C2:C6)*SUM(D2:D6)-B17-B18</f>
+        <v>1716</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7008547008547008E-2</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23504273504273504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17">
+        <f>B6*C6*SUM(D2:D5)</f>
+        <v>304</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3278544817006351E-3</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20819636204251588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18">
+        <f>B6*C6*D6</f>
+        <v>8</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1915406530791147E-4</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0957703265395573E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <f>SUM(C11:C19)</f>
+        <v>0.24194608809993429</v>
+      </c>
+      <c r="E20" s="1">
+        <f>SUM(E11:E19)</f>
+        <v>1.0971948279640586</v>
       </c>
     </row>
   </sheetData>
@@ -920,21 +1257,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -945,7 +1282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -959,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -973,7 +1310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -987,7 +1324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1001,7 +1338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1015,7 +1352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1024,7 +1361,7 @@
         <v>34476</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -1038,7 +1375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1058,7 +1395,7 @@
         <v>0.32109293421510615</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1078,7 +1415,7 @@
         <v>3.4806822137138878E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1098,7 +1435,7 @@
         <v>0.14937927833855436</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1118,7 +1455,7 @@
         <v>0.23755656108597284</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1138,7 +1475,7 @@
         <v>8.1215918319990713E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1158,7 +1495,7 @@
         <v>7.8315349808562473E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1178,10 +1515,10 @@
         <v>8.7017055342847205E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1200,21 +1537,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7265625" customWidth="1"/>
-    <col min="2" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1225,7 +1562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1239,7 +1576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1253,7 +1590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1267,7 +1604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1281,7 +1618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1295,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1304,7 +1641,7 @@
         <v>33456</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -1318,7 +1655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1338,7 +1675,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1358,7 +1695,7 @@
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1378,7 +1715,7 @@
         <v>9.5648015303682457E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1398,7 +1735,7 @@
         <v>5.7388809182209469E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1418,7 +1755,7 @@
         <v>5.3802008608321378E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1438,7 +1775,7 @@
         <v>0.26960784313725494</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1458,7 +1795,7 @@
         <v>4.7824007651841229E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1481,10 +1818,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1503,21 +1840,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1528,7 +1865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1542,7 +1879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1556,7 +1893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1570,7 +1907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1584,7 +1921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1598,7 +1935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1607,7 +1944,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -1621,7 +1958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1641,7 +1978,7 @@
         <v>0.26939655172413796</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1661,7 +1998,7 @@
         <v>8.6206896551724144E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1681,7 +2018,7 @@
         <v>0.10344827586206896</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1701,7 +2038,7 @@
         <v>4.5977011494252873E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1721,7 +2058,7 @@
         <v>4.3103448275862072E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1741,7 +2078,7 @@
         <v>0.28017241379310343</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1761,7 +2098,7 @@
         <v>7.7227011494252873E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1781,10 +2118,10 @@
         <v>0.14367816091954022</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1803,21 +2140,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1828,7 +2165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1842,7 +2179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1856,7 +2193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1870,7 +2207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1884,7 +2221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1898,7 +2235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1912,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1921,7 +2258,7 @@
         <v>39168</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1935,7 +2272,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1955,7 +2292,7 @@
         <v>0.25939542483660133</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1975,7 +2312,7 @@
         <v>0.15956903594771241</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1995,7 +2332,7 @@
         <v>0.17667483660130717</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2015,7 +2352,7 @@
         <v>8.6805555555555552E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2035,7 +2372,7 @@
         <v>0.11233660130718953</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -2055,10 +2392,10 @@
         <v>0.25531045751633991</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2077,21 +2414,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2102,7 +2439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -2116,7 +2453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2130,7 +2467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2144,7 +2481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2158,7 +2495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2172,7 +2509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2181,7 +2518,7 @@
         <v>22707</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -2195,7 +2532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2215,7 +2552,7 @@
         <v>0.32183908045977011</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2235,7 +2572,7 @@
         <v>0.24521072796934865</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -2255,7 +2592,7 @@
         <v>0.13872374157748713</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2275,7 +2612,7 @@
         <v>7.3985995507993133E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2295,7 +2632,7 @@
         <v>0.16206456158893734</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2315,7 +2652,7 @@
         <v>0.10569427929713304</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2335,10 +2672,10 @@
         <v>5.2847139648566521E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2357,21 +2694,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2382,7 +2719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2396,7 +2733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2410,7 +2747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2424,7 +2761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2438,7 +2775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -2452,7 +2789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2461,7 +2798,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -2475,7 +2812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -2495,7 +2832,7 @@
         <v>0.21714285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -2515,7 +2852,7 @@
         <v>0.13714285714285715</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -2535,7 +2872,7 @@
         <v>0.1219047619047619</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -2555,7 +2892,7 @@
         <v>7.6190476190476197E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2575,7 +2912,7 @@
         <v>4.0634920634920635E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -2595,7 +2932,7 @@
         <v>0.32857142857142857</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -2615,7 +2952,7 @@
         <v>0.10582010582010581</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -2635,10 +2972,10 @@
         <v>4.2328042328042333E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2657,21 +2994,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2682,7 +3019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2696,7 +3033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -2710,7 +3047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2724,7 +3061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -2738,7 +3075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2752,7 +3089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2761,7 +3098,7 @@
         <v>12312</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -2775,7 +3112,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2795,7 +3132,7 @@
         <v>5.5360623781676416E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2815,7 +3152,7 @@
         <v>0.15594541910331383</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2835,7 +3172,7 @@
         <v>4.05458089668616E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -2855,7 +3192,7 @@
         <v>4.6783625730994149E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -2875,7 +3212,7 @@
         <v>4.0480831708901883E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2895,7 +3232,7 @@
         <v>6.4977257959714096E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2915,7 +3252,7 @@
         <v>4.1325536062378168E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -2935,7 +3272,7 @@
         <v>3.8986354775828458E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -2955,7 +3292,7 @@
         <v>0.48732943469785572</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -2975,7 +3312,7 @@
         <v>6.4977257959714096E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2995,10 +3332,10 @@
         <v>3.2488628979857048E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3011,7 +3348,7 @@
         <v>1.0692007797270953</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <f>SUMIF(D11:D21,"&gt;1",C11:C21)</f>
         <v>0.11143599740090968</v>
@@ -3023,21 +3360,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6C747-826B-431D-925B-273DCC10B881}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3048,7 +3385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -3062,7 +3399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -3076,7 +3413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -3090,7 +3427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -3104,7 +3441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -3118,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3127,7 +3464,7 @@
         <v>36504</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -3141,7 +3478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -3161,7 +3498,7 @@
         <v>0.28205128205128205</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -3181,7 +3518,7 @@
         <v>0.12820512820512819</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -3201,7 +3538,7 @@
         <v>7.8895463510848127E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -3221,7 +3558,7 @@
         <v>9.4674556213017763E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -3241,7 +3578,7 @@
         <v>5.9171597633136098E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -3261,7 +3598,7 @@
         <v>0.23504273504273504</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -3281,7 +3618,7 @@
         <v>0.20819636204251588</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -3301,10 +3638,10 @@
         <v>1.0957703265395573E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>

--- a/games.xlsx
+++ b/games.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\slotmachine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsdri\Code\slotmachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD0E6A3-3E93-47E3-AA77-373544FA7A07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="10665" tabRatio="782" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19130" windowHeight="10670" tabRatio="782" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -22,18 +23,24 @@
     <sheet name="tournament4" sheetId="9" r:id="rId8"/>
     <sheet name="tournament5" sheetId="10" r:id="rId9"/>
     <sheet name="tournament6" sheetId="11" r:id="rId10"/>
+    <sheet name="premium1" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="95">
   <si>
     <t>Slot 1</t>
   </si>
@@ -303,12 +310,27 @@
   </si>
   <si>
     <t>Batman+Batman+Batman</t>
+  </si>
+  <si>
+    <t>Crazy Diamond</t>
+  </si>
+  <si>
+    <t>Watermelon</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>Watermelon+Watermelon+Watermelon</t>
+  </si>
+  <si>
+    <t>Star+Star+Star</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -659,21 +681,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -698,7 +720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -712,7 +734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -726,7 +748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -740,7 +762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -754,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -763,7 +785,7 @@
         <v>38012</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -777,7 +799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -797,7 +819,7 @@
         <v>0.29864253393665158</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -817,7 +839,7 @@
         <v>0.10859728506787331</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -837,7 +859,7 @@
         <v>0.13469430706092814</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -857,7 +879,7 @@
         <v>5.0510365147848055E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -877,7 +899,7 @@
         <v>4.7353467326107547E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -897,7 +919,7 @@
         <v>0.24886877828054296</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -917,7 +939,7 @@
         <v>8.8393139008734078E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -937,10 +959,10 @@
         <v>2.1045985478270017E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -959,19 +981,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -982,7 +1004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -996,7 +1018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -1010,7 +1032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -1024,7 +1046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -1038,7 +1060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -1052,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1061,7 +1083,7 @@
         <v>36504</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -1075,7 +1097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -1095,7 +1117,7 @@
         <v>0.28205128205128205</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -1115,7 +1137,7 @@
         <v>0.12820512820512819</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -1135,7 +1157,7 @@
         <v>7.8895463510848127E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -1155,7 +1177,7 @@
         <v>9.4674556213017763E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -1175,7 +1197,7 @@
         <v>5.9171597633136098E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -1195,7 +1217,7 @@
         <v>0.23504273504273504</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -1215,7 +1237,7 @@
         <v>0.20819636204251588</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -1235,10 +1257,10 @@
         <v>1.0957703265395573E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1249,6 +1271,306 @@
       <c r="E20" s="1">
         <f>SUM(E11:E19)</f>
         <v>1.0971948279640586</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBB5AEF-A987-484F-A07E-ACD7CB484B2E}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)*SUM(C2:C7)*SUM(D2:D7)</f>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>B2*(C2+C6)*SUM(D2:D6)</f>
+        <v>1500</v>
+      </c>
+      <c r="C11" s="2">
+        <f>B11/$B$8</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" ref="E11:E13" si="0">C11*D11</f>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12">
+        <f>B3*(C3+C6)*(D3+D6)</f>
+        <v>672</v>
+      </c>
+      <c r="C12" s="2">
+        <f>B12/$B$8</f>
+        <v>4.072727272727273E-2</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16290909090909092</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13">
+        <f>B4*(C4+C6)*(D4+D6)</f>
+        <v>420</v>
+      </c>
+      <c r="C13" s="2">
+        <f>B13/$B$8</f>
+        <v>2.5454545454545455E-2</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12727272727272729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14">
+        <f>B5*(C5+C6)*SUM(D2:D4)</f>
+        <v>108</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" ref="C14:C18" si="1">B14/$B$8</f>
+        <v>6.5454545454545453E-3</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" ref="E14:E18" si="2">C14*D14</f>
+        <v>6.545454545454546E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <f>B5*(C5+C6)*(D5+D6)</f>
+        <v>42</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5454545454545456E-3</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="2"/>
+        <v>5.0909090909090911E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <f>B6*SUM(C2:C4)*SUM(D2:D6)</f>
+        <v>425</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5757575757575757E-2</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25757575757575757</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <f>B6*C6*SUM(D2:D5)</f>
+        <v>42</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5454545454545456E-3</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="2"/>
+        <v>6.3636363636363644E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <f>B6*C6*D6</f>
+        <v>8</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="1"/>
+        <v>4.8484848484848484E-4</v>
+      </c>
+      <c r="D18">
+        <v>200</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="2"/>
+        <v>9.696969696969697E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <f>SUM(C11:C19)</f>
+        <v>0.19496969696969696</v>
+      </c>
+      <c r="E20" s="1">
+        <f>SUM(E11:E19)</f>
+        <v>1.0065454545454546</v>
       </c>
     </row>
   </sheetData>
@@ -1257,21 +1579,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1282,7 +1604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1296,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1310,7 +1632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1324,7 +1646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1338,7 +1660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1352,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1361,7 +1683,7 @@
         <v>34476</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -1375,7 +1697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1395,7 +1717,7 @@
         <v>0.32109293421510615</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1415,7 +1737,7 @@
         <v>3.4806822137138878E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1435,7 +1757,7 @@
         <v>0.14937927833855436</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1455,7 +1777,7 @@
         <v>0.23755656108597284</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1475,7 +1797,7 @@
         <v>8.1215918319990713E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1495,7 +1817,7 @@
         <v>7.8315349808562473E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1515,10 +1837,10 @@
         <v>8.7017055342847205E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1537,21 +1859,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7265625" customWidth="1"/>
+    <col min="2" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1562,7 +1884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1576,7 +1898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1590,7 +1912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1604,7 +1926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1618,7 +1940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1632,7 +1954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1641,7 +1963,7 @@
         <v>33456</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -1655,7 +1977,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1675,7 +1997,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1695,7 +2017,7 @@
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1715,7 +2037,7 @@
         <v>9.5648015303682457E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1735,7 +2057,7 @@
         <v>5.7388809182209469E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1755,7 +2077,7 @@
         <v>5.3802008608321378E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1775,7 +2097,7 @@
         <v>0.26960784313725494</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1795,7 +2117,7 @@
         <v>4.7824007651841229E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1818,10 +2140,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1840,21 +2162,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1865,7 +2187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1879,7 +2201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1893,7 +2215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1907,7 +2229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1921,7 +2243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1935,7 +2257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1944,7 +2266,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -1958,7 +2280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1978,7 +2300,7 @@
         <v>0.26939655172413796</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1998,7 +2320,7 @@
         <v>8.6206896551724144E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -2018,7 +2340,7 @@
         <v>0.10344827586206896</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -2038,7 +2360,7 @@
         <v>4.5977011494252873E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2058,7 +2380,7 @@
         <v>4.3103448275862072E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -2078,7 +2400,7 @@
         <v>0.28017241379310343</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -2098,7 +2420,7 @@
         <v>7.7227011494252873E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -2118,10 +2440,10 @@
         <v>0.14367816091954022</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2140,21 +2462,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2165,7 +2487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2179,7 +2501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2193,7 +2515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2207,7 +2529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2221,7 +2543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2235,7 +2557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -2249,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2258,7 +2580,7 @@
         <v>39168</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -2272,7 +2594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2292,7 +2614,7 @@
         <v>0.25939542483660133</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -2312,7 +2634,7 @@
         <v>0.15956903594771241</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2332,7 +2654,7 @@
         <v>0.17667483660130717</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2352,7 +2674,7 @@
         <v>8.6805555555555552E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2372,7 +2694,7 @@
         <v>0.11233660130718953</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -2392,10 +2714,10 @@
         <v>0.25531045751633991</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2414,21 +2736,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2439,7 +2761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -2453,7 +2775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2467,7 +2789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2481,7 +2803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2495,7 +2817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2509,7 +2831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2518,7 +2840,7 @@
         <v>22707</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -2532,7 +2854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2552,7 +2874,7 @@
         <v>0.32183908045977011</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2572,7 +2894,7 @@
         <v>0.24521072796934865</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -2592,7 +2914,7 @@
         <v>0.13872374157748713</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2612,7 +2934,7 @@
         <v>7.3985995507993133E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2632,7 +2954,7 @@
         <v>0.16206456158893734</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2652,7 +2974,7 @@
         <v>0.10569427929713304</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2672,10 +2994,10 @@
         <v>5.2847139648566521E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2694,21 +3016,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2719,7 +3041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2733,7 +3055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2747,7 +3069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2761,7 +3083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2775,7 +3097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -2789,7 +3111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2798,7 +3120,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -2812,7 +3134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -2832,7 +3154,7 @@
         <v>0.21714285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -2852,7 +3174,7 @@
         <v>0.13714285714285715</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -2872,7 +3194,7 @@
         <v>0.1219047619047619</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -2892,7 +3214,7 @@
         <v>7.6190476190476197E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2912,7 +3234,7 @@
         <v>4.0634920634920635E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -2932,7 +3254,7 @@
         <v>0.32857142857142857</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -2952,7 +3274,7 @@
         <v>0.10582010582010581</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -2972,10 +3294,10 @@
         <v>4.2328042328042333E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2994,21 +3316,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3019,7 +3341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3033,7 +3355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -3047,7 +3369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3061,7 +3383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -3075,7 +3397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -3089,7 +3411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3098,7 +3420,7 @@
         <v>12312</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -3112,7 +3434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3132,7 +3454,7 @@
         <v>5.5360623781676416E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -3152,7 +3474,7 @@
         <v>0.15594541910331383</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -3172,7 +3494,7 @@
         <v>4.05458089668616E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -3192,7 +3514,7 @@
         <v>4.6783625730994149E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -3212,7 +3534,7 @@
         <v>4.0480831708901883E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3232,7 +3554,7 @@
         <v>6.4977257959714096E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -3252,7 +3574,7 @@
         <v>4.1325536062378168E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -3272,7 +3594,7 @@
         <v>3.8986354775828458E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -3292,7 +3614,7 @@
         <v>0.48732943469785572</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -3312,7 +3634,7 @@
         <v>6.4977257959714096E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3332,10 +3654,10 @@
         <v>3.2488628979857048E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3348,7 +3670,7 @@
         <v>1.0692007797270953</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C24" s="1">
         <f>SUMIF(D11:D21,"&gt;1",C11:C21)</f>
         <v>0.11143599740090968</v>
@@ -3360,21 +3682,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3385,7 +3707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -3399,7 +3721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -3413,7 +3735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -3427,7 +3749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -3441,7 +3763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -3455,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3464,7 +3786,7 @@
         <v>36504</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -3478,7 +3800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -3498,7 +3820,7 @@
         <v>0.28205128205128205</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -3518,7 +3840,7 @@
         <v>0.12820512820512819</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -3538,7 +3860,7 @@
         <v>7.8895463510848127E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -3558,7 +3880,7 @@
         <v>9.4674556213017763E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -3578,7 +3900,7 @@
         <v>5.9171597633136098E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -3598,7 +3920,7 @@
         <v>0.23504273504273504</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -3618,7 +3940,7 @@
         <v>0.20819636204251588</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -3638,10 +3960,10 @@
         <v>1.0957703265395573E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>

--- a/games.xlsx
+++ b/games.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsdri\Code\slotmachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD0E6A3-3E93-47E3-AA77-373544FA7A07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A7CE1D-E66A-4C8E-9894-B669FD50ED40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19130" windowHeight="10670" tabRatio="782" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19130" windowHeight="10670" tabRatio="782" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
     <sheet name="wild cherry" sheetId="2" r:id="rId2"/>
     <sheet name="progressive" sheetId="3" r:id="rId3"/>
     <sheet name="loose" sheetId="4" r:id="rId4"/>
-    <sheet name="tournament" sheetId="6" r:id="rId5"/>
-    <sheet name="tournament2" sheetId="7" r:id="rId6"/>
-    <sheet name="tournament3" sheetId="8" r:id="rId7"/>
-    <sheet name="tournament4" sheetId="9" r:id="rId8"/>
-    <sheet name="tournament5" sheetId="10" r:id="rId9"/>
-    <sheet name="tournament6" sheetId="11" r:id="rId10"/>
-    <sheet name="premium1" sheetId="13" r:id="rId11"/>
+    <sheet name="valentines" sheetId="14" r:id="rId5"/>
+    <sheet name="tournament" sheetId="6" r:id="rId6"/>
+    <sheet name="tournament2" sheetId="7" r:id="rId7"/>
+    <sheet name="tournament3" sheetId="8" r:id="rId8"/>
+    <sheet name="tournament4" sheetId="9" r:id="rId9"/>
+    <sheet name="tournament5" sheetId="10" r:id="rId10"/>
+    <sheet name="tournament6" sheetId="11" r:id="rId11"/>
+    <sheet name="premium1" sheetId="13" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,6 +34,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="105">
   <si>
     <t>Slot 1</t>
   </si>
@@ -325,6 +327,36 @@
   </si>
   <si>
     <t>Star+Star+Star</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Chocolate</t>
+  </si>
+  <si>
+    <t>Kiss</t>
+  </si>
+  <si>
+    <t>Cupid</t>
+  </si>
+  <si>
+    <t>Rose+Rose+Rose</t>
+  </si>
+  <si>
+    <t>Chocolate+Chocoloate+Chocolate</t>
+  </si>
+  <si>
+    <t>Kiss+Kiss+Kiss</t>
+  </si>
+  <si>
+    <t>Cupid+Any+Any</t>
+  </si>
+  <si>
+    <t>Cupid+Cupid+Any</t>
+  </si>
+  <si>
+    <t>Cupid+Cupid+Cupid</t>
   </si>
 </sst>
 </file>
@@ -981,6 +1013,306 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)*SUM(C2:C7)*SUM(D2:D7)</f>
+        <v>36504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11">
+        <f>B2*SUM(C3:C7)*SUM(D2:D7)</f>
+        <v>5148</v>
+      </c>
+      <c r="C11" s="2">
+        <f>B11/$B$8</f>
+        <v>0.14102564102564102</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <f>C11*D11</f>
+        <v>0.28205128205128205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12">
+        <f>B2*C2*SUM(D2:D7)</f>
+        <v>936</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" ref="C12:C18" si="0">B12/$B$8</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ref="E12:E18" si="1">C12*D12</f>
+        <v>0.12820512820512819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13">
+        <f>B3*C3*D3</f>
+        <v>288</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>7.889546351084813E-3</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>7.8895463510848127E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14">
+        <f>B4*C4*D4</f>
+        <v>288</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>7.889546351084813E-3</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15">
+        <f>B5*C5*D5</f>
+        <v>144</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9447731755424065E-3</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>5.9171597633136098E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16">
+        <f>B6*SUM(C2:C6)*SUM(D2:D6)-B17-B18</f>
+        <v>1716</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7008547008547008E-2</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23504273504273504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <f>B6*C6*SUM(D2:D5)</f>
+        <v>304</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3278544817006351E-3</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20819636204251588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18">
+        <f>B6*C6*D6</f>
+        <v>8</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1915406530791147E-4</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0957703265395573E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <f>SUM(C11:C19)</f>
+        <v>0.24194608809993429</v>
+      </c>
+      <c r="E20" s="1">
+        <f>SUM(E11:E19)</f>
+        <v>1.0971948279640586</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -1278,11 +1610,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBB5AEF-A987-484F-A07E-ACD7CB484B2E}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -2462,6 +2794,306 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA992AE9-5A4C-4D0E-9476-A2571B55032B}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)*SUM(C2:C7)*SUM(D2:D7)</f>
+        <v>35802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <f>B2*SUM(C3:C7)*SUM(D2:D7)</f>
+        <v>5382</v>
+      </c>
+      <c r="C11" s="2">
+        <f>B11/$B$8</f>
+        <v>0.15032679738562091</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <f>C11*D11</f>
+        <v>0.30065359477124182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <f>B2*C2*SUM(D2:D7)</f>
+        <v>936</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" ref="C12:C18" si="0">B12/$B$8</f>
+        <v>2.6143790849673203E-2</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ref="E12:E18" si="1">C12*D12</f>
+        <v>0.10457516339869281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13">
+        <f>B3*C3*D3</f>
+        <v>448</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2513267415228199E-2</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>7.507960449136919E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <f>B4*C4*D4</f>
+        <v>192</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>5.3628288922406573E-3</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>4.2902631137925258E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15">
+        <f>B5*C5*D5</f>
+        <v>70</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9551980336294061E-3</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3462376403552872E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16">
+        <f>B6*SUM(C2:C6)*SUM(D2:D6)-B17-B18</f>
+        <v>1794</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0108932461873638E-2</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25054466230936817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17">
+        <f>B6*C6*SUM(D2:D5)</f>
+        <v>304</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>8.4911457460477065E-3</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>8.4911457460477069E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18">
+        <f>B6*C6*D6</f>
+        <v>8</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>2.234512038433607E-4</v>
+      </c>
+      <c r="D18">
+        <v>500</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11172560192168035</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <f>SUM(C11:C19)</f>
+        <v>0.25512541198815708</v>
+      </c>
+      <c r="E20" s="1">
+        <f>SUM(E11:E19)</f>
+        <v>0.99385509189430743</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -2735,7 +3367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -3015,7 +3647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -3315,7 +3947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -3679,304 +4311,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <f>SUM(B2:B7)*SUM(C2:C7)*SUM(D2:D7)</f>
-        <v>36504</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11">
-        <f>B2*SUM(C3:C7)*SUM(D2:D7)</f>
-        <v>5148</v>
-      </c>
-      <c r="C11" s="2">
-        <f>B11/$B$8</f>
-        <v>0.14102564102564102</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <f>C11*D11</f>
-        <v>0.28205128205128205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12">
-        <f>B2*C2*SUM(D2:D7)</f>
-        <v>936</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" ref="C12:C18" si="0">B12/$B$8</f>
-        <v>2.564102564102564E-2</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" ref="E12:E18" si="1">C12*D12</f>
-        <v>0.12820512820512819</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13">
-        <f>B3*C3*D3</f>
-        <v>288</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>7.889546351084813E-3</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>7.8895463510848127E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14">
-        <f>B4*C4*D4</f>
-        <v>288</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>7.889546351084813E-3</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>9.4674556213017763E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15">
-        <f>B5*C5*D5</f>
-        <v>144</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>3.9447731755424065E-3</v>
-      </c>
-      <c r="D15">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>5.9171597633136098E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16">
-        <f>B6*SUM(C2:C6)*SUM(D2:D6)-B17-B18</f>
-        <v>1716</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
-        <v>4.7008547008547008E-2</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>0.23504273504273504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17">
-        <f>B6*C6*SUM(D2:D5)</f>
-        <v>304</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>8.3278544817006351E-3</v>
-      </c>
-      <c r="D17">
-        <v>25</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>0.20819636204251588</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18">
-        <f>B6*C6*D6</f>
-        <v>8</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1915406530791147E-4</v>
-      </c>
-      <c r="D18">
-        <v>50</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0957703265395573E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1">
-        <f>SUM(C11:C19)</f>
-        <v>0.24194608809993429</v>
-      </c>
-      <c r="E20" s="1">
-        <f>SUM(E11:E19)</f>
-        <v>1.0971948279640586</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>